--- a/report/reto3.xlsx
+++ b/report/reto3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_OTROS\ENTRENAMIENTO\RICARDO\reto3Workspace\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C4828-4469-415F-BEE7-91D4919F3285}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF351B-A0ED-4D94-B215-EDDEDA71BE8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="2430" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
   </bookViews>
@@ -458,26 +458,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,50 +490,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/report/reto3.xlsx
+++ b/report/reto3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_OTROS\ENTRENAMIENTO\RICARDO\reto3Workspace\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF351B-A0ED-4D94-B215-EDDEDA71BE8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA1D32-4DD4-413F-AF83-5F0940EA6483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2430" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
+    <workbookView xWindow="7710" yWindow="2430" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -458,10 +458,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,50 +474,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,10 +530,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/report/reto3.xlsx
+++ b/report/reto3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_OTROS\ENTRENAMIENTO\RICARDO\reto3Workspace\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA1D32-4DD4-413F-AF83-5F0940EA6483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC672E3-EE1C-46FD-B128-2274C18AB602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7710" yWindow="2430" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
   </bookViews>
@@ -458,82 +458,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/report/reto3.xlsx
+++ b/report/reto3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_OTROS\ENTRENAMIENTO\RICARDO\reto3Workspace\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC672E3-EE1C-46FD-B128-2274C18AB602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D6C4B2-4100-4B59-8EE2-608F4BBC6254}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="2430" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="10395" windowHeight="8490" xr2:uid="{22FD799A-F044-4B65-9630-D8CE53591802}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -466,42 +466,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,18 +522,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
